--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/123/word_level_predictions_123.xlsx
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G96" s="2" t="b">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="I96" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K96" s="2" t="b">
@@ -5806,468 +5806,468 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" t="n">
         <v>7</v>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" t="n">
         <v>3</v>
       </c>
-      <c r="E104" s="2" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>7</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>4</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" s="2" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>7</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>5</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" s="2" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" t="n">
         <v>7</v>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" t="n">
         <v>6</v>
       </c>
-      <c r="E107" s="2" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" s="2" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" t="n">
         <v>7</v>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" t="n">
         <v>7</v>
       </c>
-      <c r="E108" s="2" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" s="2" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" t="n">
         <v>7</v>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" t="n">
         <v>8</v>
       </c>
-      <c r="E109" s="2" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" s="2" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2" t="inlineStr">
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>7</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" t="n">
         <v>9</v>
       </c>
-      <c r="E110" s="2" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>7</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" t="n">
         <v>10</v>
       </c>
-      <c r="E111" s="2" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" s="2" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>7</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>11</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8510,210 +8510,210 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
+      <c r="A156" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B156" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C156" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D156" t="n">
+      <c r="D156" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E156" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="F156" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G156" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I156" t="b">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K156" t="b">
-        <v>1</v>
-      </c>
-      <c r="L156" t="inlineStr">
+      <c r="G156" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I156" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J156" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K156" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C157" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G157" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I157" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K157" t="b">
-        <v>1</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="E157" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G157" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="E159" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G195" s="2" t="b">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="F196" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G196" s="2" t="b">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="L196" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G198" s="2" t="b">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12722,158 +12722,158 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>15</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>4</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>15</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>5</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>15</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>6</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="F248" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G248" s="2" t="b">
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="L248" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13433,11 +13433,11 @@
         </is>
       </c>
       <c r="I250" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13485,11 +13485,11 @@
         </is>
       </c>
       <c r="I251" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13537,11 +13537,11 @@
         </is>
       </c>
       <c r="I252" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13589,11 +13589,11 @@
         </is>
       </c>
       <c r="I253" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13641,11 +13641,11 @@
         </is>
       </c>
       <c r="I254" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13797,11 +13797,11 @@
         </is>
       </c>
       <c r="I257" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/123/word_level_predictions_123.xlsx
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G96" s="2" t="b">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="I96" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K96" s="2" t="b">
@@ -5806,468 +5806,468 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E104" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E107" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E108" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F108" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E109" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F109" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="G109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E110" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8510,210 +8510,210 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" t="n">
         <v>10</v>
       </c>
-      <c r="B156" s="2" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C156" s="2" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D156" s="2" t="n">
+      <c r="D156" t="n">
         <v>7</v>
       </c>
-      <c r="E156" s="2" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F156" s="2" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G156" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I156" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K156" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L156" s="2" t="inlineStr">
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" t="n">
         <v>10</v>
       </c>
-      <c r="B157" s="2" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C157" s="2" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D157" s="2" t="n">
+      <c r="D157" t="n">
         <v>8</v>
       </c>
-      <c r="E157" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G157" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L157" s="2" t="inlineStr">
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" t="n">
         <v>10</v>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" t="n">
         <v>9</v>
       </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F158" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L158" s="2" t="inlineStr">
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" t="n">
         <v>10</v>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" t="n">
         <v>10</v>
       </c>
-      <c r="E159" s="2" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L159" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G195" s="2" t="b">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="F196" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G196" s="2" t="b">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="L196" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G198" s="2" t="b">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12722,158 +12722,158 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
+      <c r="A238" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D238" t="n">
+      <c r="D238" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
+      <c r="A239" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D239" t="n">
+      <c r="D239" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E239" t="inlineStr">
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="F248" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G248" s="2" t="b">
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="L248" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13433,11 +13433,11 @@
         </is>
       </c>
       <c r="I250" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13485,11 +13485,11 @@
         </is>
       </c>
       <c r="I251" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13537,11 +13537,11 @@
         </is>
       </c>
       <c r="I252" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13589,11 +13589,11 @@
         </is>
       </c>
       <c r="I253" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13641,11 +13641,11 @@
         </is>
       </c>
       <c r="I254" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13797,11 +13797,11 @@
         </is>
       </c>
       <c r="I257" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
